--- a/biology/Zoologie/Epocilla_praetextata/Epocilla_praetextata.xlsx
+++ b/biology/Zoologie/Epocilla_praetextata/Epocilla_praetextata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epocilla praetextata est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epocilla praetextata est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde au Manipur[2], au Népal, au Bhoutan, en Chine au Yunnan[3], en Birmanie, en Malaisie, à Singapour et en Indonésie à Java[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde au Manipur, au Népal, au Bhoutan, en Chine au Yunnan, en Birmanie, en Malaisie, à Singapour et en Indonésie à Java,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Jastrzębski en 2007 mesure 2,45 mm de long sur 1,97 mm et l'abdomen 3,26 mm et la carapace de la femelle mesure 2,56 mm de long sur 2,12 mm et l'abdomen 4,20 mm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Jastrzębski en 2007 mesure 2,45 mm de long sur 1,97 mm et l'abdomen 3,26 mm et la carapace de la femelle mesure 2,56 mm de long sur 2,12 mm et l'abdomen 4,20 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thorell, 1887 : « Viaggio di L. Fea in Birmania e regioni vicine. II. Primo saggio sui ragni birmani. » Annali del Museo civico di storia naturale di Genova, vol. 25, p. 5-417 (texte intégral).</t>
         </is>
